--- a/DataReader.xlsx
+++ b/DataReader.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ForceM\AppData\Local\Programs\Python\Python35-32\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Force\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Rarity</t>
   </si>
   <si>
-    <t>NULL</t>
-  </si>
-  <si>
     <t>Wear</t>
   </si>
   <si>
@@ -59,34 +56,101 @@
     <t>file</t>
   </si>
   <si>
-    <t>Tester</t>
-  </si>
-  <si>
     <t>pistol</t>
   </si>
   <si>
-    <t>Exclusive</t>
-  </si>
-  <si>
     <t>Factory New</t>
+  </si>
+  <si>
+    <t>Battle-Scarred</t>
+  </si>
+  <si>
+    <t>Field-Tested</t>
+  </si>
+  <si>
+    <t>Minimal Wear</t>
+  </si>
+  <si>
+    <t>Mil-Spec</t>
+  </si>
+  <si>
+    <t>AUG Wings</t>
+  </si>
+  <si>
+    <t>AWP Lightning Strike</t>
+  </si>
+  <si>
+    <t>Covert</t>
+  </si>
+  <si>
+    <t>Desert Eagle Hypnotic</t>
+  </si>
+  <si>
+    <t>Restricted</t>
+  </si>
+  <si>
+    <t>Glock-18 Dragon Tatto</t>
+  </si>
+  <si>
+    <t>M4A1-S Dark Water</t>
+  </si>
+  <si>
+    <t>MP7 Skulls</t>
+  </si>
+  <si>
+    <t>smg</t>
+  </si>
+  <si>
+    <t>SG 553 Ultraviolet</t>
+  </si>
+  <si>
+    <t>StatTrak</t>
+  </si>
+  <si>
+    <t>StatTrak AK-47 Case Hardened</t>
+  </si>
+  <si>
+    <t>StatTrak AUG Wings</t>
+  </si>
+  <si>
+    <t>StatTrak AWP Lightning Strike</t>
+  </si>
+  <si>
+    <t>sniper</t>
+  </si>
+  <si>
+    <t>StatTrak Desert Eagle Hypnotic</t>
+  </si>
+  <si>
+    <t>StatTrak Glock-18 Dragon Tattoo</t>
+  </si>
+  <si>
+    <t>StatTrak M4A1-S Dark Water</t>
+  </si>
+  <si>
+    <t>StatTrak MP7 Skulls</t>
+  </si>
+  <si>
+    <t>StatTrak SG 553 Ultraviolet</t>
+  </si>
+  <si>
+    <t>StatTrak USP-S Dark Water</t>
+  </si>
+  <si>
+    <t>USP-S Dark Water</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,11 +173,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,16 +488,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,58 +516,970 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D11" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/DataReader.xlsx
+++ b/DataReader.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>USP-S Dark Water</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -489,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,6 +1485,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DataReader.xlsx
+++ b/DataReader.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Force\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ForceM\AppData\Local\Programs\Python\Python35-32\item_prices\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5052" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,9 +89,6 @@
     <t>Restricted</t>
   </si>
   <si>
-    <t>Glock-18 Dragon Tatto</t>
-  </si>
-  <si>
     <t>M4A1-S Dark Water</t>
   </si>
   <si>
@@ -141,6 +138,9 @@
   </si>
   <si>
     <t>NULL</t>
+  </si>
+  <si>
+    <t>Glock-18 Dragon Tattoo</t>
   </si>
 </sst>
 </file>
@@ -494,18 +494,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,10 +522,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -605,7 +605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -673,7 +673,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -693,7 +693,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -745,9 +745,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -765,9 +765,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -785,9 +785,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
@@ -805,9 +805,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -825,15 +825,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
         <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
@@ -845,29 +845,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
@@ -885,9 +885,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
@@ -905,9 +905,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
@@ -925,9 +925,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
@@ -945,9 +945,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
@@ -965,9 +965,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
@@ -985,9 +985,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
@@ -1005,9 +1005,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
@@ -1025,9 +1025,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
@@ -1045,9 +1045,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
@@ -1065,9 +1065,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
@@ -1085,35 +1085,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
         <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" t="s">
-        <v>30</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
@@ -1125,15 +1125,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
         <v>29</v>
-      </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
-        <v>30</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
@@ -1145,9 +1145,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
@@ -1165,9 +1165,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
@@ -1185,9 +1185,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
@@ -1205,9 +1205,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
@@ -1225,9 +1225,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
@@ -1245,9 +1245,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
@@ -1265,15 +1265,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" t="s">
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
@@ -1285,29 +1285,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>34</v>
-      </c>
-      <c r="B40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>35</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
@@ -1325,9 +1325,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
@@ -1345,9 +1345,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
@@ -1365,9 +1365,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B44" t="s">
         <v>9</v>
@@ -1385,9 +1385,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
         <v>9</v>
@@ -1405,9 +1405,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B46" t="s">
         <v>9</v>
@@ -1425,9 +1425,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B47" t="s">
         <v>9</v>
@@ -1445,9 +1445,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
@@ -1465,9 +1465,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B49" t="s">
         <v>9</v>
@@ -1485,24 +1485,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/DataReader.xlsx
+++ b/DataReader.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -44,12 +44,6 @@
     <t>rifle</t>
   </si>
   <si>
-    <t>Classified</t>
-  </si>
-  <si>
-    <t>Well-Worn</t>
-  </si>
-  <si>
     <t>AK-47 Case Hardened</t>
   </si>
   <si>
@@ -71,24 +65,15 @@
     <t>Minimal Wear</t>
   </si>
   <si>
-    <t>Mil-Spec</t>
-  </si>
-  <si>
     <t>AUG Wings</t>
   </si>
   <si>
     <t>AWP Lightning Strike</t>
   </si>
   <si>
-    <t>Covert</t>
-  </si>
-  <si>
     <t>Desert Eagle Hypnotic</t>
   </si>
   <si>
-    <t>Restricted</t>
-  </si>
-  <si>
     <t>M4A1-S Dark Water</t>
   </si>
   <si>
@@ -141,6 +126,30 @@
   </si>
   <si>
     <t>Glock-18 Dragon Tattoo</t>
+  </si>
+  <si>
+    <t>weapon_type</t>
+  </si>
+  <si>
+    <t>mil-spec</t>
+  </si>
+  <si>
+    <t>classified</t>
+  </si>
+  <si>
+    <t>restricted</t>
+  </si>
+  <si>
+    <t>covert</t>
+  </si>
+  <si>
+    <t>Well-Won</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -492,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A14"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,24 +531,24 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -547,19 +556,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
         <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -567,19 +576,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -587,19 +596,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -607,19 +616,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -627,19 +636,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -647,19 +656,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -667,19 +676,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -687,19 +696,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -707,19 +716,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -727,19 +736,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -747,19 +756,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -767,19 +776,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -787,19 +796,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -807,19 +816,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -827,19 +836,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -847,139 +856,139 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
         <v>5</v>
       </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" t="s">
-        <v>12</v>
-      </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -987,19 +996,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1007,19 +1016,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
         <v>5</v>
-      </c>
-      <c r="D26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" t="s">
-        <v>13</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1027,19 +1036,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1047,19 +1056,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1067,19 +1076,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1087,19 +1096,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1107,19 +1116,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1127,39 +1136,39 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1167,139 +1176,139 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -1307,19 +1316,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
         <v>5</v>
-      </c>
-      <c r="D41" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" t="s">
-        <v>12</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -1327,19 +1336,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -1347,19 +1356,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -1367,19 +1376,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -1387,19 +1396,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
         <v>5</v>
-      </c>
-      <c r="D45" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" t="s">
-        <v>7</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -1407,19 +1416,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -1427,19 +1436,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -1447,62 +1456,142 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" t="s">
         <v>37</v>
       </c>
-      <c r="B50" t="s">
-        <v>37</v>
-      </c>
-      <c r="C50" t="s">
-        <v>37</v>
-      </c>
-      <c r="D50" t="s">
-        <v>37</v>
-      </c>
-      <c r="E50" t="s">
-        <v>37</v>
-      </c>
-      <c r="F50" t="s">
-        <v>37</v>
+      <c r="E54" t="s">
+        <v>38</v>
+      </c>
+      <c r="F54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>39</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
